--- a/dist/home/_internal/controle_contratos/data_contratos/setores_om.xlsx
+++ b/dist/home/_internal/controle_contratos/data_contratos/setores_om.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb5bd7a50d11ebd7/Área de Trabalho/Programa PYQT6/pyqt6/controle_contratos/data_contratos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63fbdbda17b5124d/Área de Trabalho/Programa git/pyqt6/dist/home/_internal/controle_contratos/data_contratos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B8E549E-9D7E-435C-8F60-056B38121562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1B8E549E-9D7E-435C-8F60-056B38121562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A56F23A-2D79-4C44-AA67-AC7AC8FA4B87}"/>
   <bookViews>
-    <workbookView xWindow="40560" yWindow="5540" windowWidth="28800" windowHeight="15460"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Com7ºDN</t>
   </si>
@@ -152,13 +152,16 @@
   </si>
   <si>
     <t>Divisão de Veteranos e Pensionistas</t>
+  </si>
+  <si>
+    <t>Seção do Mendonça</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -348,25 +351,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="1"/>
-    <cellStyle name="Accent 1" xfId="2"/>
-    <cellStyle name="Accent 2" xfId="3"/>
-    <cellStyle name="Accent 3" xfId="4"/>
-    <cellStyle name="Bad" xfId="5"/>
-    <cellStyle name="Error" xfId="6"/>
-    <cellStyle name="Footnote" xfId="7"/>
-    <cellStyle name="Good" xfId="8"/>
-    <cellStyle name="Heading (user)" xfId="9"/>
-    <cellStyle name="Heading 1" xfId="10"/>
-    <cellStyle name="Heading 2" xfId="11"/>
-    <cellStyle name="Hyperlink" xfId="12"/>
-    <cellStyle name="Neutral" xfId="13"/>
+    <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading (user)" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Neutral" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="14"/>
-    <cellStyle name="Result (user)" xfId="15"/>
-    <cellStyle name="Status" xfId="16"/>
-    <cellStyle name="Text" xfId="17"/>
-    <cellStyle name="Warning" xfId="18"/>
+    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Result (user)" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -697,19 +700,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="47.296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -725,7 +730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -733,7 +738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -741,7 +746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -749,7 +754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -757,7 +762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -765,7 +770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -773,7 +778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -781,7 +786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -789,7 +794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -797,7 +802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -805,102 +810,105 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="14">
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="14">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="14">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="14">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="14">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="14">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="28">
+    <row r="27" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="14">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="14">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="14">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="14">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="14">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
